--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H2">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I2">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J2">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188276784192115</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N2">
-        <v>0.188276784192115</v>
+        <v>0.619108</v>
       </c>
       <c r="O2">
-        <v>0.05239039408417863</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P2">
-        <v>0.05239039408417863</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q2">
-        <v>4.16556410064345</v>
+        <v>4.944553094208</v>
       </c>
       <c r="R2">
-        <v>4.16556410064345</v>
+        <v>44.50097784787199</v>
       </c>
       <c r="S2">
-        <v>0.007745439191281189</v>
+        <v>0.007722291599278008</v>
       </c>
       <c r="T2">
-        <v>0.007745439191281189</v>
+        <v>0.008461085463669343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H3">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I3">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J3">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.09796213891147</v>
+        <v>3.258868</v>
       </c>
       <c r="N3">
-        <v>3.09796213891147</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O3">
-        <v>0.862047107995135</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P3">
-        <v>0.862047107995135</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q3">
-        <v>68.5414291856312</v>
+        <v>78.08159086790398</v>
       </c>
       <c r="R3">
-        <v>68.5414291856312</v>
+        <v>702.7343178111358</v>
       </c>
       <c r="S3">
-        <v>0.1274457574086562</v>
+        <v>0.1219460690843403</v>
       </c>
       <c r="T3">
-        <v>0.1274457574086562</v>
+        <v>0.1336126846825619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H4">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I4">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J4">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.307488276000891</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N4">
-        <v>0.307488276000891</v>
+        <v>0.013054</v>
       </c>
       <c r="O4">
-        <v>0.08556249792068643</v>
+        <v>0.001106869224130377</v>
       </c>
       <c r="P4">
-        <v>0.08556249792068643</v>
+        <v>0.001151958545729551</v>
       </c>
       <c r="Q4">
-        <v>6.803080525164923</v>
+        <v>0.104256763104</v>
       </c>
       <c r="R4">
-        <v>6.803080525164923</v>
+        <v>0.9383108679359999</v>
       </c>
       <c r="S4">
-        <v>0.01264963045771275</v>
+        <v>0.0001628258632370687</v>
       </c>
       <c r="T4">
-        <v>0.01264963045771275</v>
+        <v>0.000178403460531506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>78.0636140790338</v>
+        <v>23.959728</v>
       </c>
       <c r="H5">
-        <v>78.0636140790338</v>
+        <v>71.879184</v>
       </c>
       <c r="I5">
-        <v>0.52163411566355</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J5">
-        <v>0.52163411566355</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188276784192115</v>
+        <v>0.4616195</v>
       </c>
       <c r="N5">
-        <v>0.188276784192115</v>
+        <v>0.923239</v>
       </c>
       <c r="O5">
-        <v>0.05239039408417863</v>
+        <v>0.117424333800012</v>
       </c>
       <c r="P5">
-        <v>0.05239039408417863</v>
+        <v>0.0814718136816918</v>
       </c>
       <c r="Q5">
-        <v>14.6975662212148</v>
+        <v>11.060277659496</v>
       </c>
       <c r="R5">
-        <v>14.6975662212148</v>
+        <v>66.361665956976</v>
       </c>
       <c r="S5">
-        <v>0.0273286168873654</v>
+        <v>0.01727369241027211</v>
       </c>
       <c r="T5">
-        <v>0.0273286168873654</v>
+        <v>0.01261751436323327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H6">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I6">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J6">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.09796213891147</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N6">
-        <v>3.09796213891147</v>
+        <v>0.619108</v>
       </c>
       <c r="O6">
-        <v>0.862047107995135</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P6">
-        <v>0.862047107995135</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q6">
-        <v>241.8381208434431</v>
+        <v>17.59458165830089</v>
       </c>
       <c r="R6">
-        <v>241.8381208434431</v>
+        <v>158.351234924708</v>
       </c>
       <c r="S6">
-        <v>0.449673180839363</v>
+        <v>0.02747882114803566</v>
       </c>
       <c r="T6">
-        <v>0.449673180839363</v>
+        <v>0.03010772789208733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H7">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I7">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J7">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.307488276000891</v>
+        <v>3.258868</v>
       </c>
       <c r="N7">
-        <v>0.307488276000891</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O7">
-        <v>0.08556249792068643</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P7">
-        <v>0.08556249792068643</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q7">
-        <v>24.00364611156099</v>
+        <v>277.8436999988227</v>
       </c>
       <c r="R7">
-        <v>24.00364611156099</v>
+        <v>2500.593299989404</v>
       </c>
       <c r="S7">
-        <v>0.0446323179368216</v>
+        <v>0.4339300295766974</v>
       </c>
       <c r="T7">
-        <v>0.0446323179368216</v>
+        <v>0.4754442406505692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9993177092857</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H8">
-        <v>11.9993177092857</v>
+        <v>255.773201</v>
       </c>
       <c r="I8">
-        <v>0.08018144632033275</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J8">
-        <v>0.08018144632033275</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188276784192115</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N8">
-        <v>0.188276784192115</v>
+        <v>0.013054</v>
       </c>
       <c r="O8">
-        <v>0.05239039408417863</v>
+        <v>0.001106869224130377</v>
       </c>
       <c r="P8">
-        <v>0.05239039408417863</v>
+        <v>0.001151958545729551</v>
       </c>
       <c r="Q8">
-        <v>2.259192950803807</v>
+        <v>0.3709848184282222</v>
       </c>
       <c r="R8">
-        <v>2.259192950803807</v>
+        <v>3.338863365854</v>
       </c>
       <c r="S8">
-        <v>0.004200737570961647</v>
+        <v>0.0005793957294469745</v>
       </c>
       <c r="T8">
-        <v>0.004200737570961647</v>
+        <v>0.0006348266859793574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9993177092857</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H9">
-        <v>11.9993177092857</v>
+        <v>255.773201</v>
       </c>
       <c r="I9">
-        <v>0.08018144632033275</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J9">
-        <v>0.08018144632033275</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.09796213891147</v>
+        <v>0.4616195</v>
       </c>
       <c r="N9">
-        <v>3.09796213891147</v>
+        <v>0.923239</v>
       </c>
       <c r="O9">
-        <v>0.862047107995135</v>
+        <v>0.117424333800012</v>
       </c>
       <c r="P9">
-        <v>0.862047107995135</v>
+        <v>0.0814718136816918</v>
       </c>
       <c r="Q9">
-        <v>37.17343195613701</v>
+        <v>39.35663238633984</v>
       </c>
       <c r="R9">
-        <v>37.17343195613701</v>
+        <v>236.139794318039</v>
       </c>
       <c r="S9">
-        <v>0.06912018391531</v>
+        <v>0.06146630157716738</v>
       </c>
       <c r="T9">
-        <v>0.06912018391531</v>
+        <v>0.04489786691718217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H10">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I10">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J10">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307488276000891</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N10">
-        <v>0.307488276000891</v>
+        <v>0.619108</v>
       </c>
       <c r="O10">
-        <v>0.08556249792068643</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P10">
-        <v>0.08556249792068643</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q10">
-        <v>3.68964951561522</v>
+        <v>2.834978905210666</v>
       </c>
       <c r="R10">
-        <v>3.68964951561522</v>
+        <v>25.514810146896</v>
       </c>
       <c r="S10">
-        <v>0.006860524834061101</v>
+        <v>0.004427606169197251</v>
       </c>
       <c r="T10">
-        <v>0.006860524834061101</v>
+        <v>0.004851196528314224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.1243864863653</v>
+        <v>13.737404</v>
       </c>
       <c r="H11">
-        <v>15.1243864863653</v>
+        <v>41.212212</v>
       </c>
       <c r="I11">
-        <v>0.1010636781661359</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J11">
-        <v>0.1010636781661359</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.188276784192115</v>
+        <v>3.258868</v>
       </c>
       <c r="N11">
-        <v>0.188276784192115</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O11">
-        <v>0.05239039408417863</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P11">
-        <v>0.05239039408417863</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q11">
-        <v>2.84757085053154</v>
+        <v>44.76838629867199</v>
       </c>
       <c r="R11">
-        <v>2.84757085053154</v>
+        <v>402.915476688048</v>
       </c>
       <c r="S11">
-        <v>0.005294765926720461</v>
+        <v>0.06991825688603366</v>
       </c>
       <c r="T11">
-        <v>0.005294765926720461</v>
+        <v>0.07660735668656027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.1243864863653</v>
+        <v>13.737404</v>
       </c>
       <c r="H12">
-        <v>15.1243864863653</v>
+        <v>41.212212</v>
       </c>
       <c r="I12">
-        <v>0.1010636781661359</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J12">
-        <v>0.1010636781661359</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.09796213891147</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N12">
-        <v>3.09796213891147</v>
+        <v>0.013054</v>
       </c>
       <c r="O12">
-        <v>0.862047107995135</v>
+        <v>0.001106869224130377</v>
       </c>
       <c r="P12">
-        <v>0.862047107995135</v>
+        <v>0.001151958545729551</v>
       </c>
       <c r="Q12">
-        <v>46.85477670902398</v>
+        <v>0.05977602393866666</v>
       </c>
       <c r="R12">
-        <v>46.85477670902398</v>
+        <v>0.537984215448</v>
       </c>
       <c r="S12">
-        <v>0.08712165148646854</v>
+        <v>9.335684716188602E-05</v>
       </c>
       <c r="T12">
-        <v>0.08712165148646854</v>
+        <v>0.0001022883236537306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.1243864863653</v>
+        <v>13.737404</v>
       </c>
       <c r="H13">
-        <v>15.1243864863653</v>
+        <v>41.212212</v>
       </c>
       <c r="I13">
-        <v>0.1010636781661359</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J13">
-        <v>0.1010636781661359</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.307488276000891</v>
+        <v>0.4616195</v>
       </c>
       <c r="N13">
-        <v>0.307488276000891</v>
+        <v>0.923239</v>
       </c>
       <c r="O13">
-        <v>0.08556249792068643</v>
+        <v>0.117424333800012</v>
       </c>
       <c r="P13">
-        <v>0.08556249792068643</v>
+        <v>0.0814718136816918</v>
       </c>
       <c r="Q13">
-        <v>4.650571526263639</v>
+        <v>6.341453565778</v>
       </c>
       <c r="R13">
-        <v>4.650571526263639</v>
+        <v>38.048721394668</v>
       </c>
       <c r="S13">
-        <v>0.008647260752946927</v>
+        <v>0.00990393927725898</v>
       </c>
       <c r="T13">
-        <v>0.008647260752946927</v>
+        <v>0.00723430133612277</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.3400477716472</v>
+        <v>15.421724</v>
       </c>
       <c r="H14">
-        <v>22.3400477716472</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I14">
-        <v>0.1492799327923312</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J14">
-        <v>0.1492799327923312</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.188276784192115</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N14">
-        <v>0.188276784192115</v>
+        <v>0.619108</v>
       </c>
       <c r="O14">
-        <v>0.05239039408417863</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P14">
-        <v>0.05239039408417863</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q14">
-        <v>4.206112353143959</v>
+        <v>3.182570900730667</v>
       </c>
       <c r="R14">
-        <v>4.206112353143959</v>
+        <v>28.643138106576</v>
       </c>
       <c r="S14">
-        <v>0.007820834507849933</v>
+        <v>0.004970467514972795</v>
       </c>
       <c r="T14">
-        <v>0.007820834507849933</v>
+        <v>0.005445993575599884</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.3400477716472</v>
+        <v>15.421724</v>
       </c>
       <c r="H15">
-        <v>22.3400477716472</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I15">
-        <v>0.1492799327923312</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J15">
-        <v>0.1492799327923312</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.09796213891147</v>
+        <v>3.258868</v>
       </c>
       <c r="N15">
-        <v>3.09796213891147</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O15">
-        <v>0.862047107995135</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P15">
-        <v>0.862047107995135</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q15">
-        <v>69.20862217803658</v>
+        <v>50.257362848432</v>
       </c>
       <c r="R15">
-        <v>69.20862217803658</v>
+        <v>452.316265635888</v>
       </c>
       <c r="S15">
-        <v>0.1286863343453372</v>
+        <v>0.07849081676985774</v>
       </c>
       <c r="T15">
-        <v>0.1286863343453372</v>
+        <v>0.0860000558467733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.421724</v>
+      </c>
+      <c r="H16">
+        <v>46.26517200000001</v>
+      </c>
+      <c r="I16">
+        <v>0.09468433207297799</v>
+      </c>
+      <c r="J16">
+        <v>0.09968216600119166</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.004351333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.013054</v>
+      </c>
+      <c r="O16">
+        <v>0.001106869224130377</v>
+      </c>
+      <c r="P16">
+        <v>0.001151958545729551</v>
+      </c>
+      <c r="Q16">
+        <v>0.06710506169866667</v>
+      </c>
+      <c r="R16">
+        <v>0.6039455552880001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001048031731789201</v>
+      </c>
+      <c r="T16">
+        <v>0.0001148297229819044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.421724</v>
+      </c>
+      <c r="H17">
+        <v>46.26517200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.09468433207297799</v>
+      </c>
+      <c r="J17">
+        <v>0.09968216600119166</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4616195</v>
+      </c>
+      <c r="N17">
+        <v>0.923239</v>
+      </c>
+      <c r="O17">
+        <v>0.117424333800012</v>
+      </c>
+      <c r="P17">
+        <v>0.0814718136816918</v>
+      </c>
+      <c r="Q17">
+        <v>7.118968522018002</v>
+      </c>
+      <c r="R17">
+        <v>42.71381113210801</v>
+      </c>
+      <c r="S17">
+        <v>0.01111824461496855</v>
+      </c>
+      <c r="T17">
+        <v>0.00812128685583656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>22.3400477716472</v>
-      </c>
-      <c r="H16">
-        <v>22.3400477716472</v>
-      </c>
-      <c r="I16">
-        <v>0.1492799327923312</v>
-      </c>
-      <c r="J16">
-        <v>0.1492799327923312</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.307488276000891</v>
-      </c>
-      <c r="N16">
-        <v>0.307488276000891</v>
-      </c>
-      <c r="O16">
-        <v>0.08556249792068643</v>
-      </c>
-      <c r="P16">
-        <v>0.08556249792068643</v>
-      </c>
-      <c r="Q16">
-        <v>6.869302775081344</v>
-      </c>
-      <c r="R16">
-        <v>6.869302775081344</v>
-      </c>
-      <c r="S16">
-        <v>0.01277276393914405</v>
-      </c>
-      <c r="T16">
-        <v>0.01277276393914405</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24.498552</v>
+      </c>
+      <c r="H18">
+        <v>48.997104</v>
+      </c>
+      <c r="I18">
+        <v>0.1504130817588954</v>
+      </c>
+      <c r="J18">
+        <v>0.1055683410083432</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2063693333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.619108</v>
+      </c>
+      <c r="O18">
+        <v>0.05249514260861875</v>
+      </c>
+      <c r="P18">
+        <v>0.05463357984752036</v>
+      </c>
+      <c r="Q18">
+        <v>5.055749843871999</v>
+      </c>
+      <c r="R18">
+        <v>30.334499063232</v>
+      </c>
+      <c r="S18">
+        <v>0.007895956177135045</v>
+      </c>
+      <c r="T18">
+        <v>0.005767576387849576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24.498552</v>
+      </c>
+      <c r="H19">
+        <v>48.997104</v>
+      </c>
+      <c r="I19">
+        <v>0.1504130817588954</v>
+      </c>
+      <c r="J19">
+        <v>0.1055683410083432</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.258868</v>
+      </c>
+      <c r="N19">
+        <v>9.776603999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.8289736543672389</v>
+      </c>
+      <c r="P19">
+        <v>0.8627426479250582</v>
+      </c>
+      <c r="Q19">
+        <v>79.83754715913599</v>
+      </c>
+      <c r="R19">
+        <v>479.025282954816</v>
+      </c>
+      <c r="S19">
+        <v>0.1246884820503098</v>
+      </c>
+      <c r="T19">
+        <v>0.09107831005859351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24.498552</v>
+      </c>
+      <c r="H20">
+        <v>48.997104</v>
+      </c>
+      <c r="I20">
+        <v>0.1504130817588954</v>
+      </c>
+      <c r="J20">
+        <v>0.1055683410083432</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.004351333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.013054</v>
+      </c>
+      <c r="O20">
+        <v>0.001106869224130377</v>
+      </c>
+      <c r="P20">
+        <v>0.001151958545729551</v>
+      </c>
+      <c r="Q20">
+        <v>0.106601365936</v>
+      </c>
+      <c r="R20">
+        <v>0.639608195616</v>
+      </c>
+      <c r="S20">
+        <v>0.0001664876111055274</v>
+      </c>
+      <c r="T20">
+        <v>0.0001216103525830523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24.498552</v>
+      </c>
+      <c r="H21">
+        <v>48.997104</v>
+      </c>
+      <c r="I21">
+        <v>0.1504130817588954</v>
+      </c>
+      <c r="J21">
+        <v>0.1055683410083432</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4616195</v>
+      </c>
+      <c r="N21">
+        <v>0.923239</v>
+      </c>
+      <c r="O21">
+        <v>0.117424333800012</v>
+      </c>
+      <c r="P21">
+        <v>0.0814718136816918</v>
+      </c>
+      <c r="Q21">
+        <v>11.309009324964</v>
+      </c>
+      <c r="R21">
+        <v>45.236037299856</v>
+      </c>
+      <c r="S21">
+        <v>0.01766215592034503</v>
+      </c>
+      <c r="T21">
+        <v>0.008600844209317041</v>
       </c>
     </row>
   </sheetData>
